--- a/Valutazione per campi ridondanti/Valutazione.xlsx
+++ b/Valutazione per campi ridondanti/Valutazione.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caste\Desktop\2ndYear\db\ProgettoBasiDiDati\Valutazione dei costi per campi ridondanti\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EA316E-611C-40FE-BC0B-477E6C66903F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B93B57D4-F851-42F3-BC22-08039E785D7D}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tabella dei volumi" sheetId="1" r:id="rId1"/>
     <sheet name="con durata in Serie" sheetId="2" r:id="rId2"/>
     <sheet name="SENZA durata in Serie" sheetId="3" r:id="rId3"/>
+    <sheet name="OPERAZIONI" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="90">
   <si>
     <t>SERIE</t>
   </si>
@@ -180,13 +175,139 @@
   </si>
   <si>
     <t>CASA_PRODURRE</t>
+  </si>
+  <si>
+    <t>Concetto</t>
+  </si>
+  <si>
+    <t>Costrutto</t>
+  </si>
+  <si>
+    <t>Accesso</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>ACCOUNT</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>POSSEDERE</t>
+  </si>
+  <si>
+    <t>TOT: 5S -&gt; 7/mese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTENTE </t>
+  </si>
+  <si>
+    <t>ACCEDERE</t>
+  </si>
+  <si>
+    <t>TOT: 2S -&gt; 10/mese</t>
+  </si>
+  <si>
+    <t>UTENTE</t>
+  </si>
+  <si>
+    <t>TOT: 7L + 7S -&gt; 1/mese</t>
+  </si>
+  <si>
+    <t>TOT: 2L + 2S -&gt; 1/mese</t>
+  </si>
+  <si>
+    <t>NUMERO ISCRITTI MESE CORRENTE</t>
+  </si>
+  <si>
+    <t>RICERCA PER GENERE SERIE</t>
+  </si>
+  <si>
+    <t>TOT: 100L -&gt; 1/mese</t>
+  </si>
+  <si>
+    <t>appartenere_ep</t>
+  </si>
+  <si>
+    <t>N STAGIONI N EPISODI DI UNA SERIE</t>
+  </si>
+  <si>
+    <t>TOT: 65L -&gt; 1/anno</t>
+  </si>
+  <si>
+    <t>TOT: 1084L -&gt; 2/anno</t>
+  </si>
+  <si>
+    <t>inserimento titolare</t>
+  </si>
+  <si>
+    <t>ELIMINA UTENTE</t>
+  </si>
+  <si>
+    <t>INSERISCI UTENTE</t>
+  </si>
+  <si>
+    <t>ELIMINA TITOLARE</t>
+  </si>
+  <si>
+    <t>ELENCO UTENTI DI UN ACCOUNT</t>
+  </si>
+  <si>
+    <t>TOT: 3L -&gt; 1/mese</t>
+  </si>
+  <si>
+    <t>LISTA UTENTI</t>
+  </si>
+  <si>
+    <t>TOT: 300L -&gt; 1/mese</t>
+  </si>
+  <si>
+    <t>TOT: 3250L -&gt; 1/mese</t>
+  </si>
+  <si>
+    <t>INCASSO ANNUALE</t>
+  </si>
+  <si>
+    <t>TOT: 665L -&gt; 6/anno</t>
+  </si>
+  <si>
+    <t>ORARIO DI PUNTA</t>
+  </si>
+  <si>
+    <t>VISIONE</t>
+  </si>
+  <si>
+    <t>TOT: 400000L -&gt; 1/SETTIMANA</t>
+  </si>
+  <si>
+    <t>SERIE Più VISTE</t>
+  </si>
+  <si>
+    <t>VISIONARE_EP</t>
+  </si>
+  <si>
+    <t>TOT: 733250L -&gt; 1/settimana</t>
+  </si>
+  <si>
+    <t>ULTIME VISIONI</t>
+  </si>
+  <si>
+    <t>TOT: 740L -&gt; 1/GIORNO</t>
+  </si>
+  <si>
+    <t>SERIE Più LUNGA CON RIDONDANZA</t>
+  </si>
+  <si>
+    <t>TOT: 50L -&gt; 1/mese</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,8 +315,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Agency FB"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Agency FB"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Agency FB"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,8 +346,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -375,84 +519,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -463,6 +559,87 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -524,7 +701,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -576,7 +753,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -770,37 +947,37 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{225B7845-F965-4FA0-86EC-E98E878FAC72}">
-  <dimension ref="B2:G21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:7">
+      <c r="B2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
       <c r="F2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7">
       <c r="B3" t="s">
         <v>21</v>
       </c>
@@ -808,7 +985,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -825,7 +1002,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -842,7 +1019,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -856,7 +1033,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -864,7 +1041,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7">
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -872,7 +1049,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7">
       <c r="B9" t="s">
         <v>5</v>
       </c>
@@ -880,7 +1057,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7">
       <c r="B10" t="s">
         <v>6</v>
       </c>
@@ -888,7 +1065,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7">
       <c r="B11" t="s">
         <v>7</v>
       </c>
@@ -896,7 +1073,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7">
       <c r="B12" t="s">
         <v>8</v>
       </c>
@@ -904,7 +1081,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7">
       <c r="B13" t="s">
         <v>9</v>
       </c>
@@ -912,7 +1089,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7">
       <c r="B14" t="s">
         <v>10</v>
       </c>
@@ -920,7 +1097,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7">
       <c r="B15" t="s">
         <v>11</v>
       </c>
@@ -928,7 +1105,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7">
       <c r="B16" t="s">
         <v>12</v>
       </c>
@@ -936,7 +1113,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4">
       <c r="B17" t="s">
         <v>13</v>
       </c>
@@ -944,7 +1121,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4">
       <c r="B18" t="s">
         <v>14</v>
       </c>
@@ -952,7 +1129,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4">
       <c r="B19" t="s">
         <v>15</v>
       </c>
@@ -960,7 +1137,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4">
       <c r="B20" t="s">
         <v>16</v>
       </c>
@@ -968,12 +1145,31 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4">
       <c r="B21" t="s">
         <v>17</v>
       </c>
       <c r="C21" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -985,297 +1181,297 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19494272-D5E8-478A-9F9E-0097857D5133}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="23" t="s">
+    <row r="3" spans="2:8">
+      <c r="B3" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
-      <c r="F3" s="23" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="F3" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+      <c r="G3" s="20"/>
+      <c r="H3" s="21"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="16">
+      <c r="C4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="5">
         <v>11</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D5" s="3"/>
-      <c r="F5" s="5" t="s">
+      <c r="F4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="D5" s="2"/>
+      <c r="F5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="G5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="16">
+      <c r="C6" s="18"/>
+      <c r="D6" s="5">
         <f>D4+D3+D2</f>
         <v>11</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="15.75" thickBot="1">
       <c r="B7" s="12" t="s">
         <v>46</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="28">
+      <c r="D7" s="9">
         <v>0</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="15.75" thickBot="1">
       <c r="B8" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="15"/>
-      <c r="D8" s="29">
+      <c r="D8" s="10">
         <f>D6+D7*2</f>
         <v>11</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F9" s="5" t="s">
+      <c r="G8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="F9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F10" s="5" t="s">
+      <c r="G9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="F10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F11" s="5" t="s">
+      <c r="G10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="F11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="16">
+      <c r="G11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F12" s="5" t="s">
+    <row r="12" spans="2:8">
+      <c r="F12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="16">
+      <c r="G12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F13" s="5" t="s">
+    <row r="13" spans="2:8">
+      <c r="F13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="16">
+      <c r="G13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F14" s="5" t="s">
+    <row r="14" spans="2:8">
+      <c r="F14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="16">
+      <c r="G14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F15" s="5" t="s">
+    <row r="15" spans="2:8">
+      <c r="F15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="16">
+      <c r="G15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F16" s="5" t="s">
+    <row r="16" spans="2:8">
+      <c r="F16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="16">
+      <c r="G16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F18" s="10" t="s">
+    <row r="17" spans="2:8">
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="F18" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="16">
+      <c r="G18" s="18"/>
+      <c r="H18" s="5">
         <f>H7</f>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" ht="15.75" thickBot="1">
       <c r="F19" s="12" t="s">
         <v>46</v>
       </c>
       <c r="G19" s="13"/>
-      <c r="H19" s="28">
+      <c r="H19" s="9">
         <f>SUM(H4:H16)-H7</f>
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" ht="15.75" thickBot="1">
       <c r="F20" s="14" t="s">
         <v>31</v>
       </c>
       <c r="G20" s="15"/>
-      <c r="H20" s="29">
+      <c r="H20" s="10">
         <f>H18+H19*2</f>
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="26" t="s">
+    <row r="25" spans="2:8">
+      <c r="B25" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="16" t="s">
+    <row r="26" spans="2:8">
+      <c r="B26" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="4">
         <f>D8</f>
         <v>11</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="5">
         <v>2</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="5">
         <f>C26*D26</f>
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="16">
+    <row r="27" spans="2:8">
+      <c r="B27" s="5">
         <v>9</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="4">
         <f>H20</f>
         <v>57</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="5">
         <v>50</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="5">
         <f>C27*D27</f>
         <v>2850</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="10" t="s">
+    <row r="28" spans="2:8">
+      <c r="B28" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="6">
+      <c r="C28" s="17"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="4">
         <f>E26+E27</f>
         <v>2872</v>
       </c>
@@ -1297,313 +1493,313 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B47CE35-3376-4679-9B2A-C4BC2D588E06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="20" t="s">
+    <row r="3" spans="2:8">
+      <c r="B3" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="F3" s="20" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="F3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="C4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="4">
         <v>19</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
+      <c r="F4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="C5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="4">
         <v>143</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="G5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="4">
         <v>143</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
       <c r="C7" s="1"/>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
+      <c r="G7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="16">
+      <c r="C8" s="26"/>
+      <c r="D8" s="5">
         <f>D6+D5+D4</f>
         <v>305</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="7" t="s">
+      <c r="G8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B9" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="28">
+      <c r="C9" s="27"/>
+      <c r="D9" s="9">
         <v>0</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="6">
+      <c r="G9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="8" t="s">
+    <row r="10" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B10" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="29">
+      <c r="C10" s="29"/>
+      <c r="D10" s="10">
         <f>D8+D9*2</f>
         <v>305</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="6">
+      <c r="G10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8">
       <c r="C11" s="1"/>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="6">
+      <c r="G11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8">
       <c r="C12" s="1"/>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="6">
+      <c r="G12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8">
       <c r="C13" s="1"/>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="6">
+      <c r="G13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8">
       <c r="C14" s="1"/>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="6">
+      <c r="G14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8">
       <c r="C15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8">
       <c r="C16" s="1"/>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="16">
+      <c r="G16" s="18"/>
+      <c r="H16" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" ht="15.75" thickBot="1">
       <c r="C17" s="1"/>
       <c r="F17" s="12" t="s">
         <v>46</v>
       </c>
       <c r="G17" s="13"/>
-      <c r="H17" s="28">
+      <c r="H17" s="9">
         <f>SUM(H4:H14)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" ht="15.75" thickBot="1">
       <c r="C18" s="1"/>
       <c r="F18" s="14" t="s">
         <v>31</v>
       </c>
       <c r="G18" s="15"/>
-      <c r="H18" s="29">
+      <c r="H18" s="10">
         <f>H16+H17*2</f>
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8">
       <c r="C19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8">
       <c r="C20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8">
       <c r="C21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="21" t="s">
+    <row r="22" spans="2:8">
+      <c r="B22" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="6" t="s">
         <v>42</v>
       </c>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="16" t="s">
+    <row r="23" spans="2:8">
+      <c r="B23" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="4">
         <f>D10</f>
         <v>305</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="5">
         <v>2</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="5">
         <f>C23*D23</f>
         <v>610</v>
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="16">
+    <row r="24" spans="2:8">
+      <c r="B24" s="5">
         <v>9</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="4">
         <f>H18</f>
         <v>54</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="5">
         <v>50</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="5">
         <f>C24*D24</f>
         <v>2700</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="17" t="s">
+    <row r="25" spans="2:8">
+      <c r="B25" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="16">
+      <c r="C25" s="23"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="5">
         <f>E23+E24</f>
         <v>3310</v>
       </c>
@@ -1622,4 +1818,1174 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" style="30" customWidth="1"/>
+    <col min="2" max="5" width="9.140625" style="30"/>
+    <col min="6" max="6" width="18.42578125" style="30" customWidth="1"/>
+    <col min="7" max="10" width="9.140625" style="30"/>
+    <col min="11" max="11" width="18.140625" style="30" customWidth="1"/>
+    <col min="12" max="15" width="9.140625" style="30"/>
+    <col min="16" max="16" width="18.140625" style="30" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="F1" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="K1" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="P1" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="35"/>
+      <c r="F2" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="35"/>
+      <c r="K2" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q2" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2" s="32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="33">
+        <v>1</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="33">
+        <v>1</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="33">
+        <v>3</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q3" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="33">
+        <v>740</v>
+      </c>
+      <c r="S3" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="33">
+        <v>1</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="33">
+        <v>1</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="P4" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="33">
+        <v>1</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="33">
+        <v>1</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="33">
+        <v>1</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="33">
+        <v>1</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="33">
+        <v>1</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="K7" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="K8" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="33">
+        <v>300</v>
+      </c>
+      <c r="N8" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="K9" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="F10" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="P11" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="33">
+        <v>1</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="33">
+        <v>100</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="M12" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="N12" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="P12" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q12" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="R12" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="S12" s="32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="33">
+        <v>1</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="K13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="33">
+        <v>50</v>
+      </c>
+      <c r="N13" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P13" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" s="33">
+        <v>1500</v>
+      </c>
+      <c r="S13" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="K14" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="P14" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q14" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="R14" s="33">
+        <v>1500</v>
+      </c>
+      <c r="S14" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="F15" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="P15" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="R15" s="33">
+        <v>100</v>
+      </c>
+      <c r="S15" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="F16" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="P16" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="R16" s="33">
+        <v>100</v>
+      </c>
+      <c r="S16" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="33">
+        <v>1</v>
+      </c>
+      <c r="I17" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="L17" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="M17" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="N17" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="P17" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="R17" s="33">
+        <v>50</v>
+      </c>
+      <c r="S17" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="33">
+        <v>1</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="33">
+        <v>346</v>
+      </c>
+      <c r="I18" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="33">
+        <v>665</v>
+      </c>
+      <c r="N18" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="33">
+        <v>1</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="33">
+        <v>346</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="33">
+        <v>1</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="33">
+        <v>346</v>
+      </c>
+      <c r="I20" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="33">
+        <v>3</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="33">
+        <v>23</v>
+      </c>
+      <c r="I21" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="33">
+        <v>3</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="33">
+        <v>23</v>
+      </c>
+      <c r="I22" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="L22" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="M22" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="N22" s="32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="33">
+        <v>1</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="33">
+        <v>11</v>
+      </c>
+      <c r="I23" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="L23" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" s="33">
+        <v>400000</v>
+      </c>
+      <c r="N23" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="33">
+        <v>1</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="K24" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="33">
+        <v>1</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="33">
+        <v>1</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="K26" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="33">
+        <v>1</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="I27" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="K27" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="L27" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="M27" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="N27" s="32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="33">
+        <v>3</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="33">
+        <v>1</v>
+      </c>
+      <c r="I28" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="K28" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="L28" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="M28" s="33">
+        <v>365000</v>
+      </c>
+      <c r="N28" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="33">
+        <v>3</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" s="33">
+        <v>2</v>
+      </c>
+      <c r="I29" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="K29" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="L29" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="M29" s="33">
+        <v>365000</v>
+      </c>
+      <c r="N29" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="33">
+        <v>1</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="33">
+        <v>2</v>
+      </c>
+      <c r="I30" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="K30" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="L30" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="M30" s="33">
+        <v>1500</v>
+      </c>
+      <c r="N30" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="33">
+        <v>1</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" s="33">
+        <v>30</v>
+      </c>
+      <c r="I31" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="K31" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L31" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="M31" s="33">
+        <v>1500</v>
+      </c>
+      <c r="N31" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="F32" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="33">
+        <v>30</v>
+      </c>
+      <c r="I32" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="K32" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="M32" s="33">
+        <v>100</v>
+      </c>
+      <c r="N32" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="6:14">
+      <c r="F33" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="K33" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="L33" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="M33" s="33">
+        <v>100</v>
+      </c>
+      <c r="N33" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="6:14">
+      <c r="K34" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="L34" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="M34" s="33">
+        <v>50</v>
+      </c>
+      <c r="N34" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="6:14">
+      <c r="K35" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="P18:S18"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F26:I26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Valutazione per campi ridondanti/Valutazione.xlsx
+++ b/Valutazione per campi ridondanti/Valutazione.xlsx
@@ -11,6 +11,7 @@
     <sheet name="con durata in Serie" sheetId="2" r:id="rId2"/>
     <sheet name="SENZA durata in Serie" sheetId="3" r:id="rId3"/>
     <sheet name="OPERAZIONI" sheetId="4" r:id="rId4"/>
+    <sheet name="RIDONDANZE" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="95">
   <si>
     <t>SERIE</t>
   </si>
@@ -301,6 +302,21 @@
   </si>
   <si>
     <t>TOT: 50L -&gt; 1/mese</t>
+  </si>
+  <si>
+    <t>SERIE Più LUNGA</t>
+  </si>
+  <si>
+    <t>SERIE Più LUNGA SENZA RIDONDANZA</t>
+  </si>
+  <si>
+    <t>INCASSO ANNUALE SENZA RIDONDANZA</t>
+  </si>
+  <si>
+    <t>INCASSO ANNUALE CON RIDONDANZA</t>
+  </si>
+  <si>
+    <t>TOT: 1995L -&gt; 6/anno</t>
   </si>
 </sst>
 </file>
@@ -532,7 +548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -560,6 +576,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -617,28 +651,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -947,7 +975,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -968,11 +996,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
       <c r="F2" t="s">
         <v>23</v>
       </c>
@@ -1184,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1199,16 +1227,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
-      <c r="F3" s="19" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="F3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="21"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="3" t="s">
@@ -1243,10 +1271,10 @@
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="18"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="5">
         <f>D4+D3+D2</f>
         <v>11</v>
@@ -1262,10 +1290,10 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="9">
         <v>0</v>
       </c>
@@ -1280,10 +1308,10 @@
       </c>
     </row>
     <row r="8" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="10">
         <f>D6+D7*2</f>
         <v>11</v>
@@ -1390,30 +1418,30 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="18"/>
+      <c r="G18" s="24"/>
       <c r="H18" s="5">
         <f>H7</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="15.75" thickBot="1">
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="13"/>
+      <c r="G19" s="19"/>
       <c r="H19" s="9">
         <f>SUM(H4:H16)-H7</f>
         <v>28</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="15.75" thickBot="1">
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="15"/>
+      <c r="G20" s="21"/>
       <c r="H20" s="10">
         <f>H18+H19*2</f>
         <v>57</v>
@@ -1466,11 +1494,11 @@
       </c>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="18"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="4">
         <f>E26+E27</f>
         <v>2872</v>
@@ -1510,16 +1538,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="F3" s="25" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="F3" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="3" t="s">
@@ -1594,10 +1622,10 @@
       </c>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="26"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="5">
         <f>D6+D5+D4</f>
         <v>305</v>
@@ -1613,10 +1641,10 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="27"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="9">
         <v>0</v>
       </c>
@@ -1631,10 +1659,10 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="29"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="10">
         <f>D8+D9*2</f>
         <v>305</v>
@@ -1703,20 +1731,20 @@
     </row>
     <row r="16" spans="2:8">
       <c r="C16" s="1"/>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="18"/>
+      <c r="G16" s="24"/>
       <c r="H16" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="15.75" thickBot="1">
       <c r="C17" s="1"/>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="13"/>
+      <c r="G17" s="19"/>
       <c r="H17" s="9">
         <f>SUM(H4:H14)</f>
         <v>27</v>
@@ -1724,10 +1752,10 @@
     </row>
     <row r="18" spans="2:8" ht="15.75" thickBot="1">
       <c r="C18" s="1"/>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="15"/>
+      <c r="G18" s="21"/>
       <c r="H18" s="10">
         <f>H16+H17*2</f>
         <v>54</v>
@@ -1794,11 +1822,11 @@
       </c>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="24"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="30"/>
       <c r="E25" s="5">
         <f>E23+E24</f>
         <v>3310</v>
@@ -1824,1157 +1852,1057 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="30" customWidth="1"/>
-    <col min="2" max="5" width="9.140625" style="30"/>
-    <col min="6" max="6" width="18.42578125" style="30" customWidth="1"/>
-    <col min="7" max="10" width="9.140625" style="30"/>
-    <col min="11" max="11" width="18.140625" style="30" customWidth="1"/>
-    <col min="12" max="15" width="9.140625" style="30"/>
-    <col min="16" max="16" width="18.140625" style="30" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="1" width="18.140625" style="11" customWidth="1"/>
+    <col min="2" max="5" width="9.140625" style="11"/>
+    <col min="6" max="6" width="18.42578125" style="11" customWidth="1"/>
+    <col min="7" max="10" width="9.140625" style="11"/>
+    <col min="11" max="11" width="18.140625" style="11" customWidth="1"/>
+    <col min="12" max="15" width="9.140625" style="11"/>
+    <col min="16" max="16" width="18.140625" style="11" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="F1" s="36" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="F1" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="K1" s="36" t="s">
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="K1" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="P1" s="31" t="s">
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="P1" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="32" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="35"/>
-      <c r="K2" s="32" t="s">
+      <c r="J2" s="15"/>
+      <c r="K2" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="32" t="s">
+      <c r="N2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="P2" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="32" t="s">
+      <c r="Q2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="32" t="s">
+      <c r="R2" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="S2" s="32" t="s">
+      <c r="S2" s="12" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="33">
-        <v>1</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="33" t="s">
+      <c r="B3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="33">
-        <v>1</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="33" t="s">
+      <c r="G3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="13">
+        <v>1</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="33">
+      <c r="L3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="13">
         <v>3</v>
       </c>
-      <c r="N3" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="33" t="s">
+      <c r="N3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="Q3" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="R3" s="33">
+      <c r="Q3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="13">
         <v>740</v>
       </c>
-      <c r="S3" s="33" t="s">
+      <c r="S3" s="13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="33">
-        <v>1</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="33" t="s">
+      <c r="B4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="33">
-        <v>1</v>
-      </c>
-      <c r="I4" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="34" t="s">
+      <c r="H4" s="13">
+        <v>1</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="P4" s="34" t="s">
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="P4" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="33">
-        <v>1</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="33" t="s">
+      <c r="B5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="33">
-        <v>1</v>
-      </c>
-      <c r="I5" s="33" t="s">
+      <c r="G5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="13">
+        <v>1</v>
+      </c>
+      <c r="I5" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="33">
-        <v>1</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="33" t="s">
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="33">
-        <v>1</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="31" t="s">
+      <c r="H6" s="13">
+        <v>1</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="33">
-        <v>1</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="34" t="s">
+      <c r="C7" s="13">
+        <v>1</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="K7" s="32" t="s">
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="K7" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="32" t="s">
+      <c r="L7" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="32" t="s">
+      <c r="M7" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="32" t="s">
+      <c r="N7" s="12" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="K8" s="33" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="K8" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="L8" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" s="33">
+      <c r="L8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="13">
         <v>300</v>
       </c>
-      <c r="N8" s="33" t="s">
+      <c r="N8" s="13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="K9" s="34" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="K9" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="F10" s="31" t="s">
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="F10" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="32" t="s">
+      <c r="I11" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="K11" s="31" t="s">
+      <c r="K11" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="13">
+        <v>1</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="13">
+        <v>100</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="K13" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="P11" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="33">
-        <v>1</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="33" t="s">
+      <c r="L13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="13">
+        <v>50</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="K14" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="F15" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="F16" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="13">
+        <v>1</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="13">
+        <v>1</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="13">
+        <v>346</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="13">
+        <v>665</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="13">
+        <v>1</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="13">
+        <v>346</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="33">
+      <c r="B20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="13">
+        <v>1</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="13">
+        <v>346</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="13">
+        <v>3</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="13">
+        <v>23</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="13">
+        <v>3</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="13">
+        <v>23</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N22" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="13">
+        <v>1</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="13">
+        <v>11</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" s="13">
+        <v>400000</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="13">
+        <v>1</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="K24" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="13">
+        <v>1</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="13">
+        <v>1</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="K26" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="13">
+        <v>1</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="M27" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N27" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="13">
+        <v>3</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="13">
+        <v>1</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M28" s="13">
+        <v>365000</v>
+      </c>
+      <c r="N28" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="13">
+        <v>3</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" s="13">
+        <v>2</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="M29" s="13">
+        <v>365000</v>
+      </c>
+      <c r="N29" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="13">
+        <v>1</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="13">
+        <v>2</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M30" s="13">
+        <v>1500</v>
+      </c>
+      <c r="N30" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="13">
+        <v>1</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" s="13">
+        <v>30</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="M31" s="13">
+        <v>1500</v>
+      </c>
+      <c r="N31" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="F32" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="13">
+        <v>30</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M32" s="13">
         <v>100</v>
       </c>
-      <c r="I12" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="L12" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="M12" s="32" t="s">
+      <c r="N32" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="6:14">
+      <c r="F33" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="K33" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L33" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="M33" s="13">
+        <v>100</v>
+      </c>
+      <c r="N33" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="6:14">
+      <c r="K34" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="L34" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M34" s="13">
         <v>50</v>
       </c>
-      <c r="N12" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="P12" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q12" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="R12" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="S12" s="32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="33">
-        <v>1</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="K13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="M13" s="33">
-        <v>50</v>
-      </c>
-      <c r="N13" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="P13" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="R13" s="33">
-        <v>1500</v>
-      </c>
-      <c r="S13" s="33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="K14" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="P14" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q14" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="R14" s="33">
-        <v>1500</v>
-      </c>
-      <c r="S14" s="33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="F15" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="P15" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q15" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="R15" s="33">
-        <v>100</v>
-      </c>
-      <c r="S15" s="33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="F16" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="I16" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="K16" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="P16" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q16" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="R16" s="33">
-        <v>100</v>
-      </c>
-      <c r="S16" s="33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="A17" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="33">
-        <v>1</v>
-      </c>
-      <c r="I17" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="K17" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="L17" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="M17" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="N17" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="P17" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="R17" s="33">
-        <v>50</v>
-      </c>
-      <c r="S17" s="33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
-      <c r="A18" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="33">
-        <v>1</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="H18" s="33">
-        <v>346</v>
-      </c>
-      <c r="I18" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="K18" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="L18" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="33">
-        <v>665</v>
-      </c>
-      <c r="N18" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="P18" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="A19" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="33">
-        <v>1</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="33">
-        <v>346</v>
-      </c>
-      <c r="I19" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="K19" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="A20" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="33">
-        <v>1</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="H20" s="33">
-        <v>346</v>
-      </c>
-      <c r="I20" s="33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
-      <c r="A21" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="33">
-        <v>3</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="33">
-        <v>23</v>
-      </c>
-      <c r="I21" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-    </row>
-    <row r="22" spans="1:19">
-      <c r="A22" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="33">
-        <v>3</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="H22" s="33">
-        <v>23</v>
-      </c>
-      <c r="I22" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="K22" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="L22" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="M22" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="N22" s="32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
-      <c r="A23" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="33">
-        <v>1</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="G23" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="33">
-        <v>11</v>
-      </c>
-      <c r="I23" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="K23" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="L23" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="M23" s="33">
-        <v>400000</v>
-      </c>
-      <c r="N23" s="33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
-      <c r="A24" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="33">
-        <v>1</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="K24" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-    </row>
-    <row r="25" spans="1:19">
-      <c r="A25" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="33">
-        <v>1</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19">
-      <c r="A26" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="33">
-        <v>1</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="K26" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-    </row>
-    <row r="27" spans="1:19">
-      <c r="A27" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="33">
-        <v>1</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="G27" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="H27" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="I27" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="K27" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="L27" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="M27" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="N27" s="32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19">
-      <c r="A28" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="33">
-        <v>3</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="G28" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="33">
-        <v>1</v>
-      </c>
-      <c r="I28" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="K28" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="L28" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="M28" s="33">
-        <v>365000</v>
-      </c>
-      <c r="N28" s="33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
-      <c r="A29" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="33">
-        <v>3</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="H29" s="33">
-        <v>2</v>
-      </c>
-      <c r="I29" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="K29" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="L29" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="M29" s="33">
-        <v>365000</v>
-      </c>
-      <c r="N29" s="33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19">
-      <c r="A30" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="33">
-        <v>1</v>
-      </c>
-      <c r="D30" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="G30" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="H30" s="33">
-        <v>2</v>
-      </c>
-      <c r="I30" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="K30" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="L30" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="M30" s="33">
-        <v>1500</v>
-      </c>
-      <c r="N30" s="33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
-      <c r="A31" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="33">
-        <v>1</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="H31" s="33">
-        <v>30</v>
-      </c>
-      <c r="I31" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="K31" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="L31" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="M31" s="33">
-        <v>1500</v>
-      </c>
-      <c r="N31" s="33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19">
-      <c r="A32" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="F32" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="G32" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32" s="33">
-        <v>30</v>
-      </c>
-      <c r="I32" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="K32" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="L32" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="M32" s="33">
-        <v>100</v>
-      </c>
-      <c r="N32" s="33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="6:14">
-      <c r="F33" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="K33" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="L33" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="M33" s="33">
-        <v>100</v>
-      </c>
-      <c r="N33" s="33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="6:14">
-      <c r="K34" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="L34" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="M34" s="33">
-        <v>50</v>
-      </c>
-      <c r="N34" s="33" t="s">
+      <c r="N34" s="13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="35" spans="6:14">
-      <c r="K35" s="34" t="s">
+      <c r="K35" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="34"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="P18:S18"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K26:N26"/>
+  <mergeCells count="28">
     <mergeCell ref="F33:I33"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A16:D16"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K11:N11"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A32:D32"/>
@@ -2984,8 +2912,295 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="F26:I26"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K11:N11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B4:K21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:11" ht="19.5">
+      <c r="B4" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="H4" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+    </row>
+    <row r="5" spans="2:11" ht="19.5">
+      <c r="B5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="19.5">
+      <c r="B6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="14">
+        <v>1500</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="14">
+        <v>50</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="19.5">
+      <c r="B7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="14">
+        <v>1500</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="41"/>
+    </row>
+    <row r="8" spans="2:11" ht="19.5">
+      <c r="B8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="14">
+        <v>100</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="19.5">
+      <c r="B9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="14">
+        <v>100</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="19.5">
+      <c r="B10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="14">
+        <v>50</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="19.5">
+      <c r="B11" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+    </row>
+    <row r="16" spans="2:11" ht="19.5">
+      <c r="B16" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="H16" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+    </row>
+    <row r="17" spans="2:11" ht="19.5">
+      <c r="B17" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="19.5">
+      <c r="B18" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="14">
+        <v>665</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="14">
+        <v>665</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="19.5">
+      <c r="B19" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="14">
+        <v>665</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+    </row>
+    <row r="20" spans="2:11" ht="19.5">
+      <c r="B20" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="14">
+        <v>665</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="19.5">
+      <c r="B21" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H4:K4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Valutazione per campi ridondanti/Valutazione.xlsx
+++ b/Valutazione per campi ridondanti/Valutazione.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caste\Desktop\2ndYear\db\ProgettoBasiDiDati\Valutazione per campi ridondanti\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB26986-C5F3-4AA4-BE80-0E87FAA73CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabella dei volumi" sheetId="1" r:id="rId1"/>
@@ -13,9 +19,9 @@
     <sheet name="OPERAZIONI" sheetId="4" r:id="rId4"/>
     <sheet name="RIDONDANZE" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -298,32 +304,116 @@
     <t>TOT: 740L -&gt; 1/GIORNO</t>
   </si>
   <si>
-    <t>SERIE Più LUNGA CON RIDONDANZA</t>
-  </si>
-  <si>
     <t>TOT: 50L -&gt; 1/mese</t>
   </si>
   <si>
     <t>SERIE Più LUNGA</t>
   </si>
   <si>
-    <t>SERIE Più LUNGA SENZA RIDONDANZA</t>
-  </si>
-  <si>
-    <t>INCASSO ANNUALE SENZA RIDONDANZA</t>
-  </si>
-  <si>
-    <t>INCASSO ANNUALE CON RIDONDANZA</t>
-  </si>
-  <si>
     <t>TOT: 1995L -&gt; 6/anno</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OPERAZIONE 10 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Agency FB"/>
+        <family val="2"/>
+      </rPr>
+      <t>SENZA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Agency FB"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> CAMPO durata IN SERIE RIDONDANTE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OPERAZIONE 10 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Agency FB"/>
+        <family val="2"/>
+      </rPr>
+      <t>CON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Agency FB"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> CAMPO durata IN SERIE RIDONDANTE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OPERAZIONE 11 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Agency FB"/>
+        <family val="2"/>
+      </rPr>
+      <t>SENZA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Agency FB"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> CAMPO importo IN PAGAMENTO RIDONDANTE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OPERAZIONE 11 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Agency FB"/>
+        <family val="2"/>
+      </rPr>
+      <t>CON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Agency FB"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> CAMPO importo IN PAGAMENTO RIDONDANTE</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,6 +438,13 @@
       <name val="Agency FB"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Agency FB"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -369,7 +466,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -544,11 +641,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -654,12 +788,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -667,6 +801,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -975,27 +1130,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="17" t="s">
         <v>20</v>
       </c>
@@ -1005,7 +1160,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>21</v>
       </c>
@@ -1013,7 +1168,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -1030,7 +1185,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -1047,7 +1202,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -1061,7 +1216,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -1069,7 +1224,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -1077,7 +1232,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>5</v>
       </c>
@@ -1085,7 +1240,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>6</v>
       </c>
@@ -1093,7 +1248,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>7</v>
       </c>
@@ -1101,7 +1256,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>8</v>
       </c>
@@ -1109,7 +1264,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>9</v>
       </c>
@@ -1117,7 +1272,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>10</v>
       </c>
@@ -1125,7 +1280,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>11</v>
       </c>
@@ -1133,7 +1288,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>12</v>
       </c>
@@ -1141,7 +1296,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>13</v>
       </c>
@@ -1149,7 +1304,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>14</v>
       </c>
@@ -1157,7 +1312,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>15</v>
       </c>
@@ -1165,7 +1320,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>16</v>
       </c>
@@ -1173,7 +1328,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>17</v>
       </c>
@@ -1181,7 +1336,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>11</v>
       </c>
@@ -1189,7 +1344,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>12</v>
       </c>
@@ -1209,24 +1364,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:H28"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
         <v>29</v>
       </c>
@@ -1238,7 +1393,7 @@
       <c r="G3" s="26"/>
       <c r="H3" s="27"/>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1258,7 +1413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D5" s="2"/>
       <c r="F5" s="3" t="s">
         <v>35</v>
@@ -1270,7 +1425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="22" t="s">
         <v>45</v>
       </c>
@@ -1289,7 +1444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="15.75" thickBot="1">
+    <row r="7" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="18" t="s">
         <v>46</v>
       </c>
@@ -1307,7 +1462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="15.75" thickBot="1">
+    <row r="8" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="20" t="s">
         <v>31</v>
       </c>
@@ -1326,7 +1481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F9" s="3" t="s">
         <v>34</v>
       </c>
@@ -1337,7 +1492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F10" s="3" t="s">
         <v>47</v>
       </c>
@@ -1348,7 +1503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F11" s="3" t="s">
         <v>36</v>
       </c>
@@ -1359,7 +1514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F12" s="3" t="s">
         <v>8</v>
       </c>
@@ -1370,7 +1525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1381,7 +1536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F14" s="3" t="s">
         <v>38</v>
       </c>
@@ -1392,7 +1547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F15" s="3" t="s">
         <v>39</v>
       </c>
@@ -1403,7 +1558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F16" s="3" t="s">
         <v>10</v>
       </c>
@@ -1414,10 +1569,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F18" s="22" t="s">
         <v>45</v>
       </c>
@@ -1427,7 +1582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="15.75" thickBot="1">
+    <row r="19" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F19" s="18" t="s">
         <v>46</v>
       </c>
@@ -1437,7 +1592,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="15.75" thickBot="1">
+    <row r="20" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F20" s="20" t="s">
         <v>31</v>
       </c>
@@ -1447,7 +1602,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>40</v>
       </c>
@@ -1461,7 +1616,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
         <v>41</v>
       </c>
@@ -1477,7 +1632,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="5">
         <v>9</v>
       </c>
@@ -1493,7 +1648,7 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="22" t="s">
         <v>32</v>
       </c>
@@ -1521,23 +1676,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="31" t="s">
         <v>29</v>
       </c>
@@ -1549,7 +1704,7 @@
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1569,7 +1724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>35</v>
       </c>
@@ -1589,7 +1744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
@@ -1609,7 +1764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C7" s="1"/>
       <c r="F7" s="3" t="s">
         <v>34</v>
@@ -1621,7 +1776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="32" t="s">
         <v>45</v>
       </c>
@@ -1640,7 +1795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="15.75" thickBot="1">
+    <row r="9" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="33" t="s">
         <v>46</v>
       </c>
@@ -1658,7 +1813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="15.75" thickBot="1">
+    <row r="10" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="34" t="s">
         <v>31</v>
       </c>
@@ -1677,7 +1832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C11" s="1"/>
       <c r="F11" s="3" t="s">
         <v>37</v>
@@ -1689,7 +1844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C12" s="1"/>
       <c r="F12" s="3" t="s">
         <v>38</v>
@@ -1701,7 +1856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C13" s="1"/>
       <c r="F13" s="3" t="s">
         <v>39</v>
@@ -1713,7 +1868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C14" s="1"/>
       <c r="F14" s="3" t="s">
         <v>10</v>
@@ -1725,11 +1880,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C16" s="1"/>
       <c r="F16" s="22" t="s">
         <v>45</v>
@@ -1739,7 +1894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="15.75" thickBot="1">
+    <row r="17" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="1"/>
       <c r="F17" s="18" t="s">
         <v>46</v>
@@ -1750,7 +1905,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="15.75" thickBot="1">
+    <row r="18" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" s="1"/>
       <c r="F18" s="20" t="s">
         <v>31</v>
@@ -1761,19 +1916,19 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
         <v>40</v>
       </c>
@@ -1788,7 +1943,7 @@
       </c>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
         <v>41</v>
       </c>
@@ -1805,7 +1960,7 @@
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
         <v>9</v>
       </c>
@@ -1821,7 +1976,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="28" t="s">
         <v>32</v>
       </c>
@@ -1849,52 +2004,52 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:S4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="11" customWidth="1"/>
-    <col min="2" max="5" width="9.140625" style="11"/>
-    <col min="6" max="6" width="18.42578125" style="11" customWidth="1"/>
-    <col min="7" max="10" width="9.140625" style="11"/>
-    <col min="11" max="11" width="18.140625" style="11" customWidth="1"/>
-    <col min="12" max="15" width="9.140625" style="11"/>
-    <col min="16" max="16" width="18.140625" style="11" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="18.109375" style="11" customWidth="1"/>
+    <col min="2" max="5" width="9.109375" style="11"/>
+    <col min="6" max="6" width="18.44140625" style="11" customWidth="1"/>
+    <col min="7" max="10" width="9.109375" style="11"/>
+    <col min="11" max="11" width="18.109375" style="11" customWidth="1"/>
+    <col min="12" max="15" width="9.109375" style="11"/>
+    <col min="16" max="16" width="18.109375" style="11" customWidth="1"/>
+    <col min="17" max="16384" width="9.109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="F1" s="38" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="F1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="K1" s="38" t="s">
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="K1" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="P1" s="37" t="s">
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="P1" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>48</v>
       </c>
@@ -1946,7 +2101,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>13</v>
       </c>
@@ -1996,7 +2151,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>52</v>
       </c>
@@ -2034,7 +2189,7 @@
       <c r="R4" s="36"/>
       <c r="S4" s="36"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>12</v>
       </c>
@@ -2060,7 +2215,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>17</v>
       </c>
@@ -2085,14 +2240,14 @@
       <c r="I6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="37" t="s">
+      <c r="K6" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>54</v>
       </c>
@@ -2124,7 +2279,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="36" t="s">
         <v>55</v>
       </c>
@@ -2144,7 +2299,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -2156,21 +2311,21 @@
       <c r="M9" s="36"/>
       <c r="N9" s="36"/>
     </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="38" t="s">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="F10" s="37" t="s">
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="F10" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>48</v>
       </c>
@@ -2195,14 +2350,14 @@
       <c r="I11" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="K11" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="K11" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>56</v>
       </c>
@@ -2240,7 +2395,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>57</v>
       </c>
@@ -2272,7 +2427,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="36" t="s">
         <v>58</v>
       </c>
@@ -2280,31 +2435,31 @@
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
       <c r="K14" s="36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L14" s="36"/>
       <c r="M14" s="36"/>
       <c r="N14" s="36"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
-      <c r="F15" s="37" t="s">
+      <c r="F15" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="38" t="s">
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
       <c r="F16" s="12" t="s">
         <v>48</v>
       </c>
@@ -2317,14 +2472,14 @@
       <c r="I16" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="K16" s="37" t="s">
+      <c r="K16" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>48</v>
       </c>
@@ -2362,7 +2517,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>13</v>
       </c>
@@ -2400,7 +2555,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>52</v>
       </c>
@@ -2432,7 +2587,7 @@
       <c r="M19" s="36"/>
       <c r="N19" s="36"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>12</v>
       </c>
@@ -2458,7 +2613,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>59</v>
       </c>
@@ -2483,14 +2638,14 @@
       <c r="I21" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K21" s="37" t="s">
+      <c r="K21" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>57</v>
       </c>
@@ -2528,7 +2683,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>17</v>
       </c>
@@ -2566,7 +2721,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>54</v>
       </c>
@@ -2592,7 +2747,7 @@
       <c r="M24" s="36"/>
       <c r="N24" s="36"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>13</v>
       </c>
@@ -2606,7 +2761,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>52</v>
       </c>
@@ -2619,20 +2774,20 @@
       <c r="D26" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="37" t="s">
+      <c r="F26" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="K26" s="37" t="s">
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="K26" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
         <v>12</v>
       </c>
@@ -2670,7 +2825,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
         <v>59</v>
       </c>
@@ -2708,7 +2863,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
         <v>57</v>
       </c>
@@ -2746,7 +2901,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
         <v>17</v>
       </c>
@@ -2784,7 +2939,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
         <v>54</v>
       </c>
@@ -2822,7 +2977,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="36" t="s">
         <v>60</v>
       </c>
@@ -2854,7 +3009,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="6:14">
+    <row r="33" spans="6:14" x14ac:dyDescent="0.3">
       <c r="F33" s="36" t="s">
         <v>67</v>
       </c>
@@ -2874,7 +3029,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="6:14">
+    <row r="34" spans="6:14" x14ac:dyDescent="0.3">
       <c r="K34" s="13" t="s">
         <v>0</v>
       </c>
@@ -2888,7 +3043,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="6:14">
+    <row r="35" spans="6:14" x14ac:dyDescent="0.3">
       <c r="K35" s="36" t="s">
         <v>85</v>
       </c>
@@ -2898,6 +3053,20 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K11:N11"/>
     <mergeCell ref="F33:I33"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:I1"/>
@@ -2912,20 +3081,6 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="F26:I26"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K11:N11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2933,60 +3088,62 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:K21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="B3:K21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16:K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:11" ht="19.5">
-      <c r="B4" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="H4" s="38" t="s">
+    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-    </row>
-    <row r="5" spans="2:11" ht="19.5">
-      <c r="B5" s="12" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="45"/>
+      <c r="H4" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="48"/>
+    </row>
+    <row r="5" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B5" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="42" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="19.5">
+    <row r="6" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B6" s="14" t="s">
         <v>1</v>
       </c>
@@ -3012,7 +3169,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="19.5">
+    <row r="7" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B7" s="14" t="s">
         <v>14</v>
       </c>
@@ -3026,13 +3183,13 @@
         <v>30</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I7" s="40"/>
       <c r="J7" s="40"/>
       <c r="K7" s="41"/>
     </row>
-    <row r="8" spans="2:11" ht="19.5">
+    <row r="8" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B8" s="14" t="s">
         <v>2</v>
       </c>
@@ -3046,7 +3203,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="19.5">
+    <row r="9" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B9" s="14" t="s">
         <v>15</v>
       </c>
@@ -3060,7 +3217,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="19.5">
+    <row r="10" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B10" s="14" t="s">
         <v>0</v>
       </c>
@@ -3074,7 +3231,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="19.5">
+    <row r="11" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B11" s="36" t="s">
         <v>77</v>
       </c>
@@ -3082,47 +3239,48 @@
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
     </row>
-    <row r="16" spans="2:11" ht="19.5">
-      <c r="B16" s="37" t="s">
+    <row r="15" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="H16" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-    </row>
-    <row r="17" spans="2:11" ht="19.5">
-      <c r="B17" s="12" t="s">
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="48"/>
+      <c r="H16" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="48"/>
+    </row>
+    <row r="17" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B17" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="J17" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="K17" s="42" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="19.5">
+    <row r="18" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>11</v>
       </c>
@@ -3148,7 +3306,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="19.5">
+    <row r="19" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
         <v>16</v>
       </c>
@@ -3168,7 +3326,7 @@
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
     </row>
-    <row r="20" spans="2:11" ht="19.5">
+    <row r="20" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>12</v>
       </c>
@@ -3182,9 +3340,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="19.5">
+    <row r="21" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B21" s="36" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C21" s="36"/>
       <c r="D21" s="36"/>
@@ -3202,5 +3360,6 @@
     <mergeCell ref="H4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>